--- a/xlsx_initial/schedule_planning.xlsx
+++ b/xlsx_initial/schedule_planning.xlsx
@@ -2578,10 +2578,10 @@
   <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B86" sqref="B86"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2762,9 +2762,7 @@
       <c r="C13" s="8">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D13" s="8">
-        <v>0.82291666666666663</v>
-      </c>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">

--- a/xlsx_initial/schedule_planning.xlsx
+++ b/xlsx_initial/schedule_planning.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="272">
   <si>
     <t>Основная активность</t>
   </si>
@@ -2575,13 +2575,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2762,7 +2762,9 @@
       <c r="C13" s="8">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8">
+        <v>0.82291666666666663</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
@@ -2944,7 +2946,9 @@
       <c r="C30" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="7" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
@@ -2956,7 +2960,9 @@
       <c r="C31" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
@@ -2968,7 +2974,9 @@
       <c r="C32" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
@@ -2980,7 +2988,9 @@
       <c r="C33" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
@@ -2992,7 +3002,9 @@
       <c r="C34" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
@@ -3004,7 +3016,9 @@
       <c r="C35" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
@@ -3024,7 +3038,9 @@
       <c r="C37" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="7"/>
+      <c r="D37" s="7" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
@@ -3036,7 +3052,9 @@
       <c r="C38" s="6">
         <v>90</v>
       </c>
-      <c r="D38" s="7"/>
+      <c r="D38" s="7">
+        <v>45</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
@@ -3048,7 +3066,9 @@
       <c r="C39" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D39" s="7"/>
+      <c r="D39" s="7" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
@@ -3060,19 +3080,23 @@
       <c r="C40" s="8">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D40" s="8"/>
+      <c r="D40" s="8">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B41" s="8">
-        <v>0.82291666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C41" s="8">
-        <v>0.82291666666666663</v>
-      </c>
-      <c r="D41" s="8"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D41" s="8">
+        <v>0.83333333333333337</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
@@ -3089,414 +3113,12 @@
       <c r="B43" s="9">
         <v>5</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="7"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="7"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
+      <c r="C43" s="9">
         <v>5</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="7"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="6">
-        <v>45</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="7"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="7"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="8">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="7"/>
-    </row>
-    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="10"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="7"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="7"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="7"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="7"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="7"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="7"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="7"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="13" t="s">
+      <c r="D43" s="10">
         <v>5</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="7"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="6">
-        <v>75</v>
-      </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="7"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="7"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="8">
-        <v>0.82291666666666663</v>
-      </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="7"/>
-    </row>
-    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71" s="9">
-        <v>5</v>
-      </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="10"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="7"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="7"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="7"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="7"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="7"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="7"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="7"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="7"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" s="6">
-        <v>60</v>
-      </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="7"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="7"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B82" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" s="8">
-        <v>0.82291666666666663</v>
-      </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="7"/>
-    </row>
-    <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" s="9">
-        <v>5</v>
-      </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3508,61 +3130,61 @@
           <x14:formula1>
             <xm:f>Liste!$G$1:$G$15</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:D2 B16:D16 C72:D72 C44:D44 C58:D58 D30</xm:sqref>
+          <xm:sqref>B2:D2 B16:D16 D30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Liste!$A$1:$A$52</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:D4 B18:D18 B74:D74 B46:D46 B60:D60 B32:D32</xm:sqref>
+          <xm:sqref>B4:D4 B18:D18 B32:D32</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Liste!$B$1:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:D8 B19:D22 B75:D78 B47:D50 B61:D64 B33:D36</xm:sqref>
+          <xm:sqref>B5:D8 B19:D22 B33:D36</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Liste!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B9:D9 B23:D23 B79:D79 B51:D51 B65:D65 B37:D37</xm:sqref>
+          <xm:sqref>B9:D9 B23:D23 B37:D37</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Liste!$H$1:$H$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B11:D11 B25:D25 B81:D81 B53:D53 B67:D67 B39:D39</xm:sqref>
+          <xm:sqref>B11:D11 B25:D25 B39:D39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Liste!$F$1:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B14:B15 C15:D15 B28:B29 C29:D29 B42:C43 C85:D85 B56:B57 C57:D57 B70:B71 C71:D71 B84:B85 D43</xm:sqref>
+          <xm:sqref>B14:B15 C15:D15 B28:B29 C29:D29 B42:C43 D43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Liste!$E$1:$E$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B10:D10 B24:D24 B80:D80 B52:D52 B66:D66 B38:D38</xm:sqref>
+          <xm:sqref>B10:D10 B24:D24 B38:D38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>Liste!$F$1:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C14:D14 C28:D28 C84:D84 C56:D56 C70:D70 D42</xm:sqref>
+          <xm:sqref>C14:D14 C28:D28 D42</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Liste!$D$1:$D$179</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:D3 B17:D17 B73:D73 B45:D45 B59:D59 B31:D31</xm:sqref>
+          <xm:sqref>B3:D3 B17:D17 B31:D31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Liste!$G$1:$G$20</xm:f>
           </x14:formula1>
-          <xm:sqref>B30:C30 B44 B58 B72</xm:sqref>
+          <xm:sqref>B30:C30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
